--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_origin_gaussian_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_gaussian_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="origin_gaussian_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_gaussian_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.30520160208998</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.512411513014619</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8130520160208998</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8091322110329269</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.18021782195348</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7897474454327797</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7318021782195347</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7090129293669197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.67185702298463</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3313167254687869</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8667185702298463</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8667411328998587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72.23332381768009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7713757482667764</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7223332381768008</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7165137807359662</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>66.2798121091013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.077601608804738</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6627981210910129</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6336300045456352</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>76.3941729599737</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5591067171345154</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7639417295997371</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7629257218023948</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.58508291594218</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5767025955021381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7558508291594218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7555468424954704</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.55990968780006</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5697697937488556</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7555990968780006</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7514071730356939</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.80386508533812</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5401601921766996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7680386508533811</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7659515074982114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.56623327191411</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9563487757851059</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6656623327191411</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.65194740103434</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>73.9043590342477</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7504629498658081</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.739043590342477</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7379405691306629</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>75.79434078149464</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6791664413486919</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7579434078149465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.750717964524146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.71403731866192</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2046704489543723</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9271403731866193</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9271744444893786</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.86810439536674</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4415491045297434</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8286810439536675</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8203444367939522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.33852368965128</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2107538954694367</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9333852368965129</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9313795861391514</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>77.94660276761333</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5980762637002043</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7794660276761333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7726910470349805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.76110519987198</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.164822620650133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5376110519987197</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5228016465909814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.20355712419657</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8218943926816186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6120355712419657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5836751250362001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.02423031341102</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7078133399287859</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7102423031341102</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7010895260876778</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57.67818060709867</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.057553175091744</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5767818060709867</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5560432477878785</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>54.47806641925968</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.151950783499827</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5447806641925969</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.521791336162837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.11371205633267</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9576905195911726</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6511371205633266</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6336239463123742</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48.55180408135018</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.444773333271345</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4855180408135018</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4257730179038638</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.80079412451664</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.131829948226611</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5180079412451665</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4896308743349601</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.81886521509701</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.161467244724433</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5081886521509702</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4880861929988291</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.99881486864073</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8551671763261159</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6299881486864074</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6212287134847984</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>55.71752350798882</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.095788673497736</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5571752350798882</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5233961962346625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.24627375669339</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8856338505943617</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5924627375669339</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.576145662289826</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72.38877498940302</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.637329879278938</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7238877498940302</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7081472069709734</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80.10614278670231</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4272726537271713</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8010614278670231</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7943595853348073</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.61036860180452</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3623721941063801</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8861036860180451</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8863220698261053</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.23321424349115</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9242239856797581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6223321424349114</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6021409564904517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_origin_gaussian_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_gaussian_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="origin_gaussian_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="origin_gaussian_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="origin_gaussian_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_gaussian_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="origin_gaussian_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="origin_gaussian_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.21828908554572</v>
+        <v>96.69633820361769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.165129673302484</v>
+        <v>0.09590748455229914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9421828908554571</v>
+        <v>0.9669633820361767</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9384285784900985</v>
+        <v>0.9668569331656303</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.74474692687653</v>
+        <v>93.45409562366456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2606391265067638</v>
+        <v>0.1995769680642581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9274474692687653</v>
+        <v>0.9345409562366456</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9214440695004772</v>
+        <v>0.9312476324567882</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.01769911504425</v>
+        <v>95.89970501474927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1347423318146563</v>
+        <v>0.1224325712123876</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9601769911504425</v>
+        <v>0.9589970501474927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9588290313462433</v>
+        <v>0.9572424906071516</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.10029498525074</v>
+        <v>91.20943952802359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1426588930240541</v>
+        <v>0.2388965116154092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9410029498525073</v>
+        <v>0.9120943952802361</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9392288578245627</v>
+        <v>0.9009184558565391</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.48827412001835</v>
+        <v>79.94584728241594</v>
       </c>
       <c r="C6" t="n">
-        <v>0.343803909017394</v>
+        <v>0.5489622921100817</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8448827412001834</v>
+        <v>0.7994584728241594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.830258078050934</v>
+        <v>0.7738380401727281</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.9779582868364</v>
+        <v>90.91549234854973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2626281627182228</v>
+        <v>0.2630453325808048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9197795828683638</v>
+        <v>0.9091549234854973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9067710408946412</v>
+        <v>0.8935176443567883</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.85840707964601</v>
+        <v>90.97345132743364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2182839783580372</v>
+        <v>0.2190636841733067</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9185840707964601</v>
+        <v>0.9097345132743364</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9100631100703787</v>
+        <v>0.9096472672671322</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.33367935708786</v>
+        <v>92.89085545722715</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1689118399352689</v>
+        <v>0.1756423830336037</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9333367935708786</v>
+        <v>0.9289085545722713</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9309069138128601</v>
+        <v>0.9280325909506155</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.89085545722715</v>
+        <v>92.97935103244838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2004969783020594</v>
+        <v>0.2026776662683309</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9289085545722713</v>
+        <v>0.9297935103244838</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9279809033173866</v>
+        <v>0.9279447971805059</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.27433628318583</v>
+        <v>91.12111696467963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.177586639430092</v>
+        <v>0.2322964025835157</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9327433628318584</v>
+        <v>0.9112111696467963</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9308723735900756</v>
+        <v>0.9029035926287421</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.30105796762948</v>
+        <v>82.59587020648968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.621248180718976</v>
+        <v>0.7017172675686197</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8230105796762948</v>
+        <v>0.8259587020648969</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8117490658435571</v>
+        <v>0.8140987877281898</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.54572271386431</v>
+        <v>83.77581120943952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.499021414082866</v>
+        <v>0.5088090754671915</v>
       </c>
       <c r="D13" t="n">
-        <v>0.855457227138643</v>
+        <v>0.8377581120943953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8413801459474379</v>
+        <v>0.8243294633820769</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.26253687315634</v>
+        <v>99.32153392330383</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03190704788249453</v>
+        <v>0.03471657454297201</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9926253687315635</v>
+        <v>0.9932153392330383</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9926298172637754</v>
+        <v>0.9932026334842297</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.5575221238938</v>
+        <v>99.82300884955752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01299352269152839</v>
+        <v>0.0100234783899604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9955752212389382</v>
+        <v>0.9982300884955752</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9955900535276351</v>
+        <v>0.9982305338337254</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.75811209439527</v>
+        <v>97.10914454277285</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04936554936837562</v>
+        <v>0.06253659979279101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9775811209439528</v>
+        <v>0.9710914454277286</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9774070465487114</v>
+        <v>0.9701328894300161</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.62196616464387</v>
+        <v>91.91407076762486</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2192944831435515</v>
+        <v>0.2410869527970355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9262196616464387</v>
+        <v>0.9191407076762486</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9209026057352517</v>
+        <v>0.9128095835000573</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.8528533983858</v>
+        <v>89.35103244837758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2628515075523561</v>
+        <v>0.2697202720194279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.898528533983858</v>
+        <v>0.8935103244837759</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8939926990000273</v>
+        <v>0.8803274601508481</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.88717895483525</v>
+        <v>86.37687177224716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3075052692324486</v>
+        <v>0.3098975047993008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8788717895483525</v>
+        <v>0.8637687177224717</v>
       </c>
       <c r="E3" t="n">
-        <v>0.876894953724429</v>
+        <v>0.8524886576484031</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.47492625368731</v>
+        <v>90.47197640117994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2161140673619229</v>
+        <v>0.2515122286655241</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9147492625368731</v>
+        <v>0.9047197640117994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9132924339094108</v>
+        <v>0.9039347416409174</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.77162432200971</v>
+        <v>85.1632799591692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2550578033862015</v>
+        <v>0.4521642748344069</v>
       </c>
       <c r="D5" t="n">
-        <v>0.897716243220097</v>
+        <v>0.8516327995916919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8990228092772682</v>
+        <v>0.832551428114639</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.04850387979135</v>
+        <v>70.10164447789342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6233942484327902</v>
+        <v>0.9546186163943882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7704850387979135</v>
+        <v>0.701016444778934</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7586208259810583</v>
+        <v>0.6771586590961589</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.81341534096316</v>
+        <v>84.02114205140182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6461957834816228</v>
+        <v>0.5189524024181689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8081341534096316</v>
+        <v>0.8402114205140183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.787761870638119</v>
+        <v>0.824212934137454</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.52385401257797</v>
+        <v>85.54745283263696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2915555972838774</v>
+        <v>0.3825923452464243</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8752385401257797</v>
+        <v>0.8554745283263696</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8714878290946831</v>
+        <v>0.8526130806641998</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.19833216550316</v>
+        <v>86.93578664175296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3142228974633327</v>
+        <v>0.3166337799431251</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8719833216550317</v>
+        <v>0.8693578664175297</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8718973303220834</v>
+        <v>0.8678408067378015</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.72375193557038</v>
+        <v>88.0543084282736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3460658375445443</v>
+        <v>0.3121459059611273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8572375193557038</v>
+        <v>0.880543084282736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8537661880147637</v>
+        <v>0.8731407327485303</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.7105597799289</v>
+        <v>83.30660299829583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5671822131970354</v>
+        <v>0.4325320696232666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8071055977992889</v>
+        <v>0.8330660299829583</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7983807227712224</v>
+        <v>0.8234644300470311</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.85505929982094</v>
+        <v>80.00588240382703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9263925618239833</v>
+        <v>0.7450961075381202</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7485505929982093</v>
+        <v>0.8000588240382702</v>
       </c>
       <c r="E12" t="n">
-        <v>0.734864489930206</v>
+        <v>0.7920670284722765</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.8228271870864</v>
+        <v>82.06541579079405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6557429538515862</v>
+        <v>0.6053093441451589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.788228271870864</v>
+        <v>0.8206541579079405</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7775183168351145</v>
+        <v>0.8095427739293068</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.93215339233038</v>
+        <v>95.81120943952803</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08273287934763782</v>
+        <v>0.1113831902576446</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9693215339233039</v>
+        <v>0.9581120943952802</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9694234022889944</v>
+        <v>0.9581085894542012</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.45722713864306</v>
+        <v>92.59587020648968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1115642813360258</v>
+        <v>0.170536959564591</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9545722713864306</v>
+        <v>0.9259587020648967</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9547519110711342</v>
+        <v>0.9228847422935612</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.25663716814159</v>
+        <v>96.84365781710915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0697678017622214</v>
+        <v>0.07545089545722779</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9725663716814159</v>
+        <v>0.9684365781710914</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9723418862215143</v>
+        <v>0.968077525389875</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.75526028195169</v>
+        <v>86.44347557793178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3784230468705057</v>
+        <v>0.3939030597911934</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8675526028195167</v>
+        <v>0.8644347557793176</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8622678446053355</v>
+        <v>0.855894239368347</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.52385401257797</v>
+        <v>84.75531795257744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3171199138111357</v>
+        <v>0.4019245465286076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8752385401257797</v>
+        <v>0.8475531795257745</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8730890230081483</v>
+        <v>0.8438353150975075</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.51614633344579</v>
+        <v>79.84031003728407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5923688404388182</v>
+        <v>0.5109886328301703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7651614633344579</v>
+        <v>0.7984031003728406</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7609786721288427</v>
+        <v>0.7954613192067954</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.72722082370954</v>
+        <v>85.95991314803761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3451567389730675</v>
+        <v>0.4214298406305413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8672722082370955</v>
+        <v>0.8595991314803761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8644779923200909</v>
+        <v>0.8560200100186133</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.53299769029144</v>
+        <v>78.8005951608578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7503512093176444</v>
+        <v>0.6163079087312022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7453299769029144</v>
+        <v>0.788005951608578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7357487184527575</v>
+        <v>0.7845123592438833</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.50958053270357</v>
+        <v>69.93451500445505</v>
       </c>
       <c r="C6" t="n">
-        <v>1.003251810922908</v>
+        <v>0.9050980361411348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6750958053270357</v>
+        <v>0.6993451500445506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6393382628447346</v>
+        <v>0.6718924198390511</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.9927940553119</v>
+        <v>75.80956582669401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6073316011733065</v>
+        <v>0.696003473425905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.769927940553119</v>
+        <v>0.75809565826694</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7585616100011763</v>
+        <v>0.7473142688505048</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.09955103417849</v>
+        <v>76.64564572357892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8873905802766482</v>
+        <v>0.7142697109064707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.680995510341785</v>
+        <v>0.7664564572357893</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6528004613749093</v>
+        <v>0.7465385356901674</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.89916002733587</v>
+        <v>76.11519130788329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.411311047943309</v>
+        <v>0.6361875643332799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8289916002733587</v>
+        <v>0.7611519130788328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8270613663904914</v>
+        <v>0.7507028776836281</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.90313930051298</v>
+        <v>77.89409942992586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4014361076056957</v>
+        <v>0.6437437793860833</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8290313930051297</v>
+        <v>0.7789409942992587</v>
       </c>
       <c r="E10" t="n">
-        <v>0.828092475445773</v>
+        <v>0.7678931274565804</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.36054810162719</v>
+        <v>83.21741537556554</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5350724537100178</v>
+        <v>0.4246776105341269</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7936054810162718</v>
+        <v>0.8321741537556553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7805691088929814</v>
+        <v>0.8227403091799831</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.43860241005545</v>
+        <v>76.97099455877645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7079746192165961</v>
+        <v>0.6524303558981046</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7243860241005545</v>
+        <v>0.7697099455877646</v>
       </c>
       <c r="E12" t="n">
-        <v>0.724863677080572</v>
+        <v>0.7662073989773596</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.70204759556744</v>
+        <v>78.17801192051834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6140698902929822</v>
+        <v>0.6193414472043515</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7670204759556744</v>
+        <v>0.7817801192051834</v>
       </c>
       <c r="E13" t="n">
-        <v>0.756797179275612</v>
+        <v>0.7735162905580832</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.39960553291982</v>
+        <v>96.19469026548673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1450252089106167</v>
+        <v>0.1090638008205133</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9439960553291984</v>
+        <v>0.9619469026548673</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9442761469907477</v>
+        <v>0.9621125442523131</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.11190408221525</v>
+        <v>89.92171212553743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3532157353186146</v>
+        <v>0.228405316916178</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8611190408221525</v>
+        <v>0.8992171212553742</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8431890467432168</v>
+        <v>0.8974799957967043</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.87610619469027</v>
+        <v>97.08812359968512</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06480028966567868</v>
+        <v>0.08574992856383687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9787610619469026</v>
+        <v>0.9708812359968512</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9785477846354691</v>
+        <v>0.9707245717672375</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.70621718180952</v>
+        <v>81.8217400957909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5157250698384693</v>
+        <v>0.5110414635233671</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8070621718180954</v>
+        <v>0.8182174009579092</v>
       </c>
       <c r="E17" t="n">
-        <v>0.797892768372368</v>
+        <v>0.8104634229078942</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.30520160208998</v>
+        <v>83.57191671208228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.512411513014619</v>
+        <v>0.5016276793903671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8130520160208998</v>
+        <v>0.8357191671208228</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8091322110329269</v>
+        <v>0.8301165713071017</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.18021782195348</v>
+        <v>82.05114231091963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7897474454327797</v>
+        <v>0.4829159778232375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7318021782195347</v>
+        <v>0.8205114231091966</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7090129293669197</v>
+        <v>0.8168656454511478</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.67185702298463</v>
+        <v>82.95175563802455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3313167254687869</v>
+        <v>0.5063014935857306</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8667185702298463</v>
+        <v>0.8295175563802456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8667411328998587</v>
+        <v>0.8275885735686218</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23332381768009</v>
+        <v>80.2135831624841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7713757482667764</v>
+        <v>0.5833330241652827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7223332381768008</v>
+        <v>0.802135831624841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7165137807359662</v>
+        <v>0.7955496626835907</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.2798121091013</v>
+        <v>70.21142051401829</v>
       </c>
       <c r="C6" t="n">
-        <v>1.077601608804738</v>
+        <v>0.7753186128723124</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6627981210910129</v>
+        <v>0.7021142051401829</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6336300045456352</v>
+        <v>0.6852738619590538</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.3941729599737</v>
+        <v>73.56681286170296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5591067171345154</v>
+        <v>0.8440118699489781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7639417295997371</v>
+        <v>0.7356681286170296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7629257218023948</v>
+        <v>0.7211249888176802</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.58508291594218</v>
+        <v>73.77036133530567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5767025955021381</v>
+        <v>0.7566062557200591</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7558508291594218</v>
+        <v>0.7377036133530567</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7555468424954704</v>
+        <v>0.721623935238736</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.55990968780006</v>
+        <v>75.80472149413058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5697697937488556</v>
+        <v>0.6586459473085899</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7555990968780006</v>
+        <v>0.7580472149413058</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7514071730356939</v>
+        <v>0.7549004843377281</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.80386508533812</v>
+        <v>74.2878398602064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5401601921766996</v>
+        <v>0.660982691620787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7680386508533811</v>
+        <v>0.7428783986020641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7659515074982114</v>
+        <v>0.7290726936454546</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.56623327191411</v>
+        <v>80.06782065588803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9563487757851059</v>
+        <v>0.4959101899643429</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6656623327191411</v>
+        <v>0.8006782065588803</v>
       </c>
       <c r="E11" t="n">
-        <v>0.65194740103434</v>
+        <v>0.7881762587050777</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.9043590342477</v>
+        <v>66.94002543274595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7504629498658081</v>
+        <v>1.028140939151247</v>
       </c>
       <c r="D12" t="n">
-        <v>0.739043590342477</v>
+        <v>0.6694002543274595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7379405691306629</v>
+        <v>0.6552491975219621</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.79434078149464</v>
+        <v>74.49138833380911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6791664413486919</v>
+        <v>0.7499249825874965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7579434078149465</v>
+        <v>0.7449138833380912</v>
       </c>
       <c r="E13" t="n">
-        <v>0.750717964524146</v>
+        <v>0.7368361758802274</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.71403731866192</v>
+        <v>93.952802359882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2046704489543723</v>
+        <v>0.1660191194076712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9271403731866193</v>
+        <v>0.9395280235988202</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9271744444893786</v>
+        <v>0.9395318709599849</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.86810439536674</v>
+        <v>86.61251394908261</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4415491045297434</v>
+        <v>0.3136891200774699</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8286810439536675</v>
+        <v>0.866125139490826</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8203444367939522</v>
+        <v>0.8633296252728314</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.33852368965128</v>
+        <v>95.84468723777887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2107538954694367</v>
+        <v>0.1400972868097597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9333852368965129</v>
+        <v>0.9584468723777887</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9313795861391514</v>
+        <v>0.9583476804423929</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.94660276761333</v>
+        <v>79.62258612387072</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5980762637002043</v>
+        <v>0.5775683460288887</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7794660276761333</v>
+        <v>0.7962258612387073</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7726910470349805</v>
+        <v>0.7882391483861061</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.76110519987198</v>
+        <v>76.85230841097241</v>
       </c>
       <c r="C2" t="n">
-        <v>1.164822620650133</v>
+        <v>0.6440886577824131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5376110519987197</v>
+        <v>0.7685230841097241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5228016465909814</v>
+        <v>0.7567766315923412</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.20355712419657</v>
+        <v>74.3240858484935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8218943926816186</v>
+        <v>0.7530661101763447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6120355712419657</v>
+        <v>0.743240858484935</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5836751250362001</v>
+        <v>0.7263656040143515</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.02423031341102</v>
+        <v>84.5458870751477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7078133399287859</v>
+        <v>0.4793026115745306</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7102423031341102</v>
+        <v>0.8454588707514772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7010895260876778</v>
+        <v>0.8442928388481261</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.67818060709867</v>
+        <v>73.40582530990753</v>
       </c>
       <c r="C5" t="n">
-        <v>1.057553175091744</v>
+        <v>0.7043545749038458</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5767818060709867</v>
+        <v>0.7340582530990754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5560432477878785</v>
+        <v>0.7336060658547272</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.47806641925968</v>
+        <v>63.78627842801409</v>
       </c>
       <c r="C6" t="n">
-        <v>1.151950783499827</v>
+        <v>1.016777325017999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5447806641925969</v>
+        <v>0.6378627842801408</v>
       </c>
       <c r="E6" t="n">
-        <v>0.521791336162837</v>
+        <v>0.6056871608012303</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.11371205633267</v>
+        <v>70.50035034905146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9576905195911726</v>
+        <v>0.7410258710384369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6511371205633266</v>
+        <v>0.7050035034905147</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6336239463123742</v>
+        <v>0.7058095452773194</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.55180408135018</v>
+        <v>70.13295962767845</v>
       </c>
       <c r="C8" t="n">
-        <v>1.444773333271345</v>
+        <v>0.7621847235054399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4855180408135018</v>
+        <v>0.7013295962767845</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4257730179038638</v>
+        <v>0.6966771951512533</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.80079412451664</v>
+        <v>74.67668405436032</v>
       </c>
       <c r="C9" t="n">
-        <v>1.131829948226611</v>
+        <v>0.6292332253108422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5180079412451665</v>
+        <v>0.7467668405436033</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4896308743349601</v>
+        <v>0.744199324853477</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.81886521509701</v>
+        <v>74.41137034057388</v>
       </c>
       <c r="C10" t="n">
-        <v>1.161467244724433</v>
+        <v>0.6421215148021777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5081886521509702</v>
+        <v>0.7441137034057388</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4880861929988291</v>
+        <v>0.7206245046867132</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.99881486864073</v>
+        <v>80.03676502391889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8551671763261159</v>
+        <v>0.4563990743287529</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6299881486864074</v>
+        <v>0.8003676502391889</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6212287134847984</v>
+        <v>0.7976070158601063</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.71752350798882</v>
+        <v>70.66142440678553</v>
       </c>
       <c r="C12" t="n">
-        <v>1.095788673497736</v>
+        <v>0.7772310102358461</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5571752350798882</v>
+        <v>0.7066142440678552</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5233961962346625</v>
+        <v>0.7095874571244092</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.24627375669339</v>
+        <v>70.14515696502565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8856338505943617</v>
+        <v>0.8416030863920847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5924627375669339</v>
+        <v>0.7014515696502566</v>
       </c>
       <c r="E13" t="n">
-        <v>0.576145662289826</v>
+        <v>0.6823174128932934</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.38877498940302</v>
+        <v>94.71976401179941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.637329879278938</v>
+        <v>0.1600842025596649</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7238877498940302</v>
+        <v>0.947197640117994</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7081472069709734</v>
+        <v>0.9471429992915843</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.10614278670231</v>
+        <v>84.92850284172007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4272726537271713</v>
+        <v>0.3907958952125531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8010614278670231</v>
+        <v>0.8492850284172009</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7943595853348073</v>
+        <v>0.8384015406212996</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.61036860180452</v>
+        <v>93.0402512132458</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3623721941063801</v>
+        <v>0.1919384723970628</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8861036860180451</v>
+        <v>0.9304025121324578</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8863220698261053</v>
+        <v>0.927369389521696</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.23321424349115</v>
+        <v>77.07784092711296</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9242239856797581</v>
+        <v>0.6126804236825329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6223321424349114</v>
+        <v>0.7707784092711297</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6021409564904517</v>
+        <v>0.7624309790927952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>63.87633111013071</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.841435718536377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6387633111013071</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6264028332763913</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.76039585117518</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8837512539699673</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6176039585117519</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.586215071917996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.06414415349613</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7881147315104802</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7506414415349614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7310389836656701</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.84094153063607</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.003225285063187</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6284094153063607</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6132955012082613</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.98185105407485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9673801024754842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6198185105407485</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5845943838459455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.32575541310911</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7938202620173493</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.673257554131091</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6676412397250769</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.73581086341577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8630723689993223</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5973581086341577</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5950188434224637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49.65570636424191</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.333114400040358</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.496557063642419</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4552513359003602</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.28009757869878</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9522974759340286</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5928009757869879</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5751534902212985</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.44099862455558</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.709462858736515</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6944099862455557</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6921333646389288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.94921236342875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.043391731133064</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5894921236342875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5698890523862784</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>62.55339579062102</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9161569045235713</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6255339579062102</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.612380837905065</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.66523931867923</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.473385796804602</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8166523931867923</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8138483745347148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.77539598093409</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5641998587127698</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7577539598093409</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7394208980162147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.17000147060097</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.259925029357934</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9217000147060096</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9214566975779535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>66.80501849785323</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.826182251854334</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6680501849785322</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6522493938828414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.97297554477115</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.010201366742452</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5597297554477115</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5476893844446877</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.86604555402728</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.935304062316815</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5486604555402728</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5086099878746055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>65.69295582141714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8139509633183479</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6569295582141714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6508553508357908</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.47838649123262</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.135993436475595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5147838649123262</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4936384888146388</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>53.53203747437262</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.062112023929755</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5353203747437262</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4858982101446389</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.68926201783752</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9792475561300915</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5868926201783753</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5773292757064146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41.92657375928857</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.452997095386187</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4192657375928858</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3387189395801279</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.7336828173254</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.06082297762235</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.537336828173254</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5159228743481454</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.16764850907015</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.065450304746628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5016764850907014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.485449800567235</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.74931444043633</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8515157833695411</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6074931444043633</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5914235436709007</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>47.7120909350427</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.302662799259027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4771209093504269</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.448023045127426</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.8542893969671</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9903116365273794</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5585428939696711</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5308993972199851</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>74.80938416422288</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5747178758184115</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7480938416422287</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7444799218884509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.965899358991</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4626952031006416</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.77965899358991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7757720760630786</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.25722540852431</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6016874242884417</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.852572254085243</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8379460299731376</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>59.22718477956845</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9533113672687776</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5922718477956844</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5688437550839508</v>
       </c>
     </row>
   </sheetData>
